--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Ebi3-Il6st.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Ebi3-Il6st.xlsx
@@ -537,52 +537,52 @@
         <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.26995269080854</v>
+        <v>7.293566666666666</v>
       </c>
       <c r="H2">
-        <v>6.26995269080854</v>
+        <v>21.8807</v>
       </c>
       <c r="I2">
-        <v>0.230642307994102</v>
+        <v>0.2546895690137356</v>
       </c>
       <c r="J2">
-        <v>0.230642307994102</v>
+        <v>0.2546895690137356</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>26.1737723042941</v>
+        <v>50.45577166666666</v>
       </c>
       <c r="N2">
-        <v>26.1737723042941</v>
+        <v>151.367315</v>
       </c>
       <c r="O2">
-        <v>0.1113266536609365</v>
+        <v>0.18996722124408</v>
       </c>
       <c r="P2">
-        <v>0.1113266536609365</v>
+        <v>0.1899672212440799</v>
       </c>
       <c r="Q2">
-        <v>164.1083140879188</v>
+        <v>368.0025343689444</v>
       </c>
       <c r="R2">
-        <v>164.1083140879188</v>
+        <v>3312.0228093205</v>
       </c>
       <c r="S2">
-        <v>0.02567663634161844</v>
+        <v>0.04838266970539169</v>
       </c>
       <c r="T2">
-        <v>0.02567663634161844</v>
+        <v>0.04838266970539167</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.26995269080854</v>
+        <v>7.293566666666666</v>
       </c>
       <c r="H3">
-        <v>6.26995269080854</v>
+        <v>21.8807</v>
       </c>
       <c r="I3">
-        <v>0.230642307994102</v>
+        <v>0.2546895690137356</v>
       </c>
       <c r="J3">
-        <v>0.230642307994102</v>
+        <v>0.2546895690137356</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>148.258515378317</v>
+        <v>149.2656146666667</v>
       </c>
       <c r="N3">
-        <v>148.258515378317</v>
+        <v>447.796844</v>
       </c>
       <c r="O3">
-        <v>0.6305978443580588</v>
+        <v>0.5619887102876124</v>
       </c>
       <c r="P3">
-        <v>0.6305978443580588</v>
+        <v>0.5619887102876123</v>
       </c>
       <c r="Q3">
-        <v>929.5738774315581</v>
+        <v>1088.678711612311</v>
       </c>
       <c r="R3">
-        <v>929.5738774315581</v>
+        <v>9798.1084045108</v>
       </c>
       <c r="S3">
-        <v>0.1454425422388482</v>
+        <v>0.1431326624137371</v>
       </c>
       <c r="T3">
-        <v>0.1454425422388482</v>
+        <v>0.1431326624137371</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.26995269080854</v>
+        <v>7.293566666666666</v>
       </c>
       <c r="H4">
-        <v>6.26995269080854</v>
+        <v>21.8807</v>
       </c>
       <c r="I4">
-        <v>0.230642307994102</v>
+        <v>0.2546895690137356</v>
       </c>
       <c r="J4">
-        <v>0.230642307994102</v>
+        <v>0.2546895690137356</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.7503247625346</v>
+        <v>13.28522433333333</v>
       </c>
       <c r="N4">
-        <v>11.7503247625346</v>
+        <v>39.855673</v>
       </c>
       <c r="O4">
-        <v>0.04997844101469479</v>
+        <v>0.05001919635439596</v>
       </c>
       <c r="P4">
-        <v>0.04997844101469479</v>
+        <v>0.05001919635439595</v>
       </c>
       <c r="Q4">
-        <v>73.67398036272803</v>
+        <v>96.89666935678888</v>
       </c>
       <c r="R4">
-        <v>73.67398036272803</v>
+        <v>872.0700242110998</v>
       </c>
       <c r="S4">
-        <v>0.0115271429855763</v>
+        <v>0.01273936756191452</v>
       </c>
       <c r="T4">
-        <v>0.0115271429855763</v>
+        <v>0.01273936756191452</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.26995269080854</v>
+        <v>7.293566666666666</v>
       </c>
       <c r="H5">
-        <v>6.26995269080854</v>
+        <v>21.8807</v>
       </c>
       <c r="I5">
-        <v>0.230642307994102</v>
+        <v>0.2546895690137356</v>
       </c>
       <c r="J5">
-        <v>0.230642307994102</v>
+        <v>0.2546895690137356</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.0931556709254</v>
+        <v>17.42465066666666</v>
       </c>
       <c r="N5">
-        <v>17.0931556709254</v>
+        <v>52.27395199999999</v>
       </c>
       <c r="O5">
-        <v>0.07270346051865775</v>
+        <v>0.06560423830525379</v>
       </c>
       <c r="P5">
-        <v>0.07270346051865775</v>
+        <v>0.06560423830525378</v>
       </c>
       <c r="Q5">
-        <v>107.173277393328</v>
+        <v>127.0878512807111</v>
       </c>
       <c r="R5">
-        <v>107.173277393328</v>
+        <v>1143.7906615264</v>
       </c>
       <c r="S5">
-        <v>0.0167684939331813</v>
+        <v>0.01670871517943949</v>
       </c>
       <c r="T5">
-        <v>0.0167684939331813</v>
+        <v>0.01670871517943949</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.26995269080854</v>
+        <v>7.293566666666666</v>
       </c>
       <c r="H6">
-        <v>6.26995269080854</v>
+        <v>21.8807</v>
       </c>
       <c r="I6">
-        <v>0.230642307994102</v>
+        <v>0.2546895690137356</v>
       </c>
       <c r="J6">
-        <v>0.230642307994102</v>
+        <v>0.2546895690137356</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.79529511732927</v>
+        <v>3.820091</v>
       </c>
       <c r="N6">
-        <v>3.79529511732927</v>
+        <v>11.460273</v>
       </c>
       <c r="O6">
-        <v>0.016142782177357</v>
+        <v>0.01438273656706242</v>
       </c>
       <c r="P6">
-        <v>0.016142782177357</v>
+        <v>0.01438273656706242</v>
       </c>
       <c r="Q6">
-        <v>23.79632083331117</v>
+        <v>27.86208838123333</v>
       </c>
       <c r="R6">
-        <v>23.79632083331117</v>
+        <v>250.7587954311</v>
       </c>
       <c r="S6">
-        <v>0.003723208538831673</v>
+        <v>0.003663132977503223</v>
       </c>
       <c r="T6">
-        <v>0.003723208538831673</v>
+        <v>0.003663132977503223</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.26995269080854</v>
+        <v>7.293566666666666</v>
       </c>
       <c r="H7">
-        <v>6.26995269080854</v>
+        <v>21.8807</v>
       </c>
       <c r="I7">
-        <v>0.230642307994102</v>
+        <v>0.2546895690137356</v>
       </c>
       <c r="J7">
-        <v>0.230642307994102</v>
+        <v>0.2546895690137356</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>28.0368057591466</v>
+        <v>31.35116233333333</v>
       </c>
       <c r="N7">
-        <v>28.0368057591466</v>
+        <v>94.053487</v>
       </c>
       <c r="O7">
-        <v>0.1192508182702952</v>
+        <v>0.1180378972415954</v>
       </c>
       <c r="P7">
-        <v>0.1192508182702952</v>
+        <v>0.1180378972415954</v>
       </c>
       <c r="Q7">
-        <v>175.7894457112376</v>
+        <v>228.6617925556556</v>
       </c>
       <c r="R7">
-        <v>175.7894457112376</v>
+        <v>2057.9561330009</v>
       </c>
       <c r="S7">
-        <v>0.02750428395604613</v>
+        <v>0.03006302117574954</v>
       </c>
       <c r="T7">
-        <v>0.02750428395604613</v>
+        <v>0.03006302117574954</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.29982669018</v>
+        <v>9.684806</v>
       </c>
       <c r="H8">
-        <v>9.29982669018</v>
+        <v>29.054418</v>
       </c>
       <c r="I8">
-        <v>0.3420972370194498</v>
+        <v>0.3381910632824783</v>
       </c>
       <c r="J8">
-        <v>0.3420972370194498</v>
+        <v>0.3381910632824783</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.1737723042941</v>
+        <v>50.45577166666666</v>
       </c>
       <c r="N8">
-        <v>26.1737723042941</v>
+        <v>151.367315</v>
       </c>
       <c r="O8">
-        <v>0.1113266536609365</v>
+        <v>0.18996722124408</v>
       </c>
       <c r="P8">
-        <v>0.1113266536609365</v>
+        <v>0.1899672212440799</v>
       </c>
       <c r="Q8">
-        <v>243.4115462581684</v>
+        <v>488.6543601719633</v>
       </c>
       <c r="R8">
-        <v>243.4115462581684</v>
+        <v>4397.88924154767</v>
       </c>
       <c r="S8">
-        <v>0.03808454062402758</v>
+        <v>0.06424521654135321</v>
       </c>
       <c r="T8">
-        <v>0.03808454062402758</v>
+        <v>0.06424521654135319</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.29982669018</v>
+        <v>9.684806</v>
       </c>
       <c r="H9">
-        <v>9.29982669018</v>
+        <v>29.054418</v>
       </c>
       <c r="I9">
-        <v>0.3420972370194498</v>
+        <v>0.3381910632824783</v>
       </c>
       <c r="J9">
-        <v>0.3420972370194498</v>
+        <v>0.3381910632824783</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>148.258515378317</v>
+        <v>149.2656146666667</v>
       </c>
       <c r="N9">
-        <v>148.258515378317</v>
+        <v>447.796844</v>
       </c>
       <c r="O9">
-        <v>0.6305978443580588</v>
+        <v>0.5619887102876124</v>
       </c>
       <c r="P9">
-        <v>0.6305978443580588</v>
+        <v>0.5619887102876123</v>
       </c>
       <c r="Q9">
-        <v>1378.778498361735</v>
+        <v>1445.608520517421</v>
       </c>
       <c r="R9">
-        <v>1378.778498361735</v>
+        <v>13010.47668465679</v>
       </c>
       <c r="S9">
-        <v>0.2157257802253129</v>
+        <v>0.1900595594849163</v>
       </c>
       <c r="T9">
-        <v>0.2157257802253129</v>
+        <v>0.1900595594849163</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.29982669018</v>
+        <v>9.684806</v>
       </c>
       <c r="H10">
-        <v>9.29982669018</v>
+        <v>29.054418</v>
       </c>
       <c r="I10">
-        <v>0.3420972370194498</v>
+        <v>0.3381910632824783</v>
       </c>
       <c r="J10">
-        <v>0.3420972370194498</v>
+        <v>0.3381910632824783</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.7503247625346</v>
+        <v>13.28522433333333</v>
       </c>
       <c r="N10">
-        <v>11.7503247625346</v>
+        <v>39.855673</v>
       </c>
       <c r="O10">
-        <v>0.04997844101469479</v>
+        <v>0.05001919635439596</v>
       </c>
       <c r="P10">
-        <v>0.04997844101469479</v>
+        <v>0.05001919635439595</v>
       </c>
       <c r="Q10">
-        <v>109.2759838449022</v>
+        <v>128.6648203348126</v>
       </c>
       <c r="R10">
-        <v>109.2759838449022</v>
+        <v>1157.983383013314</v>
       </c>
       <c r="S10">
-        <v>0.01709748658166663</v>
+        <v>0.01691604519962823</v>
       </c>
       <c r="T10">
-        <v>0.01709748658166663</v>
+        <v>0.01691604519962823</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>9.29982669018</v>
+        <v>9.684806</v>
       </c>
       <c r="H11">
-        <v>9.29982669018</v>
+        <v>29.054418</v>
       </c>
       <c r="I11">
-        <v>0.3420972370194498</v>
+        <v>0.3381910632824783</v>
       </c>
       <c r="J11">
-        <v>0.3420972370194498</v>
+        <v>0.3381910632824783</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>17.0931556709254</v>
+        <v>17.42465066666666</v>
       </c>
       <c r="N11">
-        <v>17.0931556709254</v>
+        <v>52.27395199999999</v>
       </c>
       <c r="O11">
-        <v>0.07270346051865775</v>
+        <v>0.06560423830525379</v>
       </c>
       <c r="P11">
-        <v>0.07270346051865775</v>
+        <v>0.06560423830525378</v>
       </c>
       <c r="Q11">
-        <v>158.9633853278737</v>
+        <v>168.7543613244373</v>
       </c>
       <c r="R11">
-        <v>158.9633853278737</v>
+        <v>1518.789251919936</v>
       </c>
       <c r="S11">
-        <v>0.02487165296518547</v>
+        <v>0.02218676710829087</v>
       </c>
       <c r="T11">
-        <v>0.02487165296518547</v>
+        <v>0.02218676710829087</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.29982669018</v>
+        <v>9.684806</v>
       </c>
       <c r="H12">
-        <v>9.29982669018</v>
+        <v>29.054418</v>
       </c>
       <c r="I12">
-        <v>0.3420972370194498</v>
+        <v>0.3381910632824783</v>
       </c>
       <c r="J12">
-        <v>0.3420972370194498</v>
+        <v>0.3381910632824783</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.79529511732927</v>
+        <v>3.820091</v>
       </c>
       <c r="N12">
-        <v>3.79529511732927</v>
+        <v>11.460273</v>
       </c>
       <c r="O12">
-        <v>0.016142782177357</v>
+        <v>0.01438273656706242</v>
       </c>
       <c r="P12">
-        <v>0.016142782177357</v>
+        <v>0.01438273656706242</v>
       </c>
       <c r="Q12">
-        <v>35.29558682924858</v>
+        <v>36.996840237346</v>
       </c>
       <c r="R12">
-        <v>35.29558682924858</v>
+        <v>332.9715621361141</v>
       </c>
       <c r="S12">
-        <v>0.005522401180680645</v>
+        <v>0.004864112972526622</v>
       </c>
       <c r="T12">
-        <v>0.005522401180680645</v>
+        <v>0.004864112972526622</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>9.29982669018</v>
+        <v>9.684806</v>
       </c>
       <c r="H13">
-        <v>9.29982669018</v>
+        <v>29.054418</v>
       </c>
       <c r="I13">
-        <v>0.3420972370194498</v>
+        <v>0.3381910632824783</v>
       </c>
       <c r="J13">
-        <v>0.3420972370194498</v>
+        <v>0.3381910632824783</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>28.0368057591466</v>
+        <v>31.35116233333333</v>
       </c>
       <c r="N13">
-        <v>28.0368057591466</v>
+        <v>94.053487</v>
       </c>
       <c r="O13">
-        <v>0.1192508182702952</v>
+        <v>0.1180378972415954</v>
       </c>
       <c r="P13">
-        <v>0.1192508182702952</v>
+        <v>0.1180378972415954</v>
       </c>
       <c r="Q13">
-        <v>260.7374345063039</v>
+        <v>303.6299250728407</v>
       </c>
       <c r="R13">
-        <v>260.7374345063039</v>
+        <v>2732.669325655566</v>
       </c>
       <c r="S13">
-        <v>0.04079537544257652</v>
+        <v>0.03991936197576306</v>
       </c>
       <c r="T13">
-        <v>0.04079537544257652</v>
+        <v>0.03991936197576305</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>25</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>11.6149671875763</v>
+        <v>11.65871166666667</v>
       </c>
       <c r="H14">
-        <v>11.6149671875763</v>
+        <v>34.976135</v>
       </c>
       <c r="I14">
-        <v>0.4272604549864482</v>
+        <v>0.4071193677037862</v>
       </c>
       <c r="J14">
-        <v>0.4272604549864482</v>
+        <v>0.4071193677037861</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>26.1737723042941</v>
+        <v>50.45577166666666</v>
       </c>
       <c r="N14">
-        <v>26.1737723042941</v>
+        <v>151.367315</v>
       </c>
       <c r="O14">
-        <v>0.1113266536609365</v>
+        <v>0.18996722124408</v>
       </c>
       <c r="P14">
-        <v>0.1113266536609365</v>
+        <v>0.1899672212440799</v>
       </c>
       <c r="Q14">
-        <v>304.0075064894693</v>
+        <v>588.2492937808361</v>
       </c>
       <c r="R14">
-        <v>304.0075064894693</v>
+        <v>5294.243644027524</v>
       </c>
       <c r="S14">
-        <v>0.04756547669529045</v>
+        <v>0.0773393349973351</v>
       </c>
       <c r="T14">
-        <v>0.04756547669529045</v>
+        <v>0.07733933499733507</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>11.6149671875763</v>
+        <v>11.65871166666667</v>
       </c>
       <c r="H15">
-        <v>11.6149671875763</v>
+        <v>34.976135</v>
       </c>
       <c r="I15">
-        <v>0.4272604549864482</v>
+        <v>0.4071193677037862</v>
       </c>
       <c r="J15">
-        <v>0.4272604549864482</v>
+        <v>0.4071193677037861</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>148.258515378317</v>
+        <v>149.2656146666667</v>
       </c>
       <c r="N15">
-        <v>148.258515378317</v>
+        <v>447.796844</v>
       </c>
       <c r="O15">
-        <v>0.6305978443580588</v>
+        <v>0.5619887102876124</v>
       </c>
       <c r="P15">
-        <v>0.6305978443580588</v>
+        <v>0.5619887102876123</v>
       </c>
       <c r="Q15">
-        <v>1722.017791397928</v>
+        <v>1740.244763146438</v>
       </c>
       <c r="R15">
-        <v>1722.017791397928</v>
+        <v>15662.20286831794</v>
       </c>
       <c r="S15">
-        <v>0.2694295218938976</v>
+        <v>0.228796488388959</v>
       </c>
       <c r="T15">
-        <v>0.2694295218938976</v>
+        <v>0.228796488388959</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>20</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>11.6149671875763</v>
+        <v>11.65871166666667</v>
       </c>
       <c r="H16">
-        <v>11.6149671875763</v>
+        <v>34.976135</v>
       </c>
       <c r="I16">
-        <v>0.4272604549864482</v>
+        <v>0.4071193677037862</v>
       </c>
       <c r="J16">
-        <v>0.4272604549864482</v>
+        <v>0.4071193677037861</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>11.7503247625346</v>
+        <v>13.28522433333333</v>
       </c>
       <c r="N16">
-        <v>11.7503247625346</v>
+        <v>39.855673</v>
       </c>
       <c r="O16">
-        <v>0.04997844101469479</v>
+        <v>0.05001919635439596</v>
       </c>
       <c r="P16">
-        <v>0.04997844101469479</v>
+        <v>0.05001919635439595</v>
       </c>
       <c r="Q16">
-        <v>136.4796365602047</v>
+        <v>154.8885999293172</v>
       </c>
       <c r="R16">
-        <v>136.4796365602047</v>
+        <v>1393.997399363855</v>
       </c>
       <c r="S16">
-        <v>0.02135381144745186</v>
+        <v>0.02036378359285321</v>
       </c>
       <c r="T16">
-        <v>0.02135381144745186</v>
+        <v>0.0203637835928532</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>21</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>11.6149671875763</v>
+        <v>11.65871166666667</v>
       </c>
       <c r="H17">
-        <v>11.6149671875763</v>
+        <v>34.976135</v>
       </c>
       <c r="I17">
-        <v>0.4272604549864482</v>
+        <v>0.4071193677037862</v>
       </c>
       <c r="J17">
-        <v>0.4272604549864482</v>
+        <v>0.4071193677037861</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>17.0931556709254</v>
+        <v>17.42465066666666</v>
       </c>
       <c r="N17">
-        <v>17.0931556709254</v>
+        <v>52.27395199999999</v>
       </c>
       <c r="O17">
-        <v>0.07270346051865775</v>
+        <v>0.06560423830525379</v>
       </c>
       <c r="P17">
-        <v>0.07270346051865775</v>
+        <v>0.06560423830525378</v>
       </c>
       <c r="Q17">
-        <v>198.5364422499322</v>
+        <v>203.1489780150578</v>
       </c>
       <c r="R17">
-        <v>198.5364422499322</v>
+        <v>1828.34080213552</v>
       </c>
       <c r="S17">
-        <v>0.03106331362029098</v>
+        <v>0.02670875601752343</v>
       </c>
       <c r="T17">
-        <v>0.03106331362029098</v>
+        <v>0.02670875601752342</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>22</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>11.6149671875763</v>
+        <v>11.65871166666667</v>
       </c>
       <c r="H18">
-        <v>11.6149671875763</v>
+        <v>34.976135</v>
       </c>
       <c r="I18">
-        <v>0.4272604549864482</v>
+        <v>0.4071193677037862</v>
       </c>
       <c r="J18">
-        <v>0.4272604549864482</v>
+        <v>0.4071193677037861</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.79529511732927</v>
+        <v>3.820091</v>
       </c>
       <c r="N18">
-        <v>3.79529511732927</v>
+        <v>11.460273</v>
       </c>
       <c r="O18">
-        <v>0.016142782177357</v>
+        <v>0.01438273656706242</v>
       </c>
       <c r="P18">
-        <v>0.016142782177357</v>
+        <v>0.01438273656706242</v>
       </c>
       <c r="Q18">
-        <v>44.08222825494801</v>
+        <v>44.53733950942834</v>
       </c>
       <c r="R18">
-        <v>44.08222825494801</v>
+        <v>400.836055584855</v>
       </c>
       <c r="S18">
-        <v>0.006897172457844676</v>
+        <v>0.005855490617032577</v>
       </c>
       <c r="T18">
-        <v>0.006897172457844676</v>
+        <v>0.005855490617032576</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>27</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>11.6149671875763</v>
+        <v>11.65871166666667</v>
       </c>
       <c r="H19">
-        <v>11.6149671875763</v>
+        <v>34.976135</v>
       </c>
       <c r="I19">
-        <v>0.4272604549864482</v>
+        <v>0.4071193677037862</v>
       </c>
       <c r="J19">
-        <v>0.4272604549864482</v>
+        <v>0.4071193677037861</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>28.0368057591466</v>
+        <v>31.35116233333333</v>
       </c>
       <c r="N19">
-        <v>28.0368057591466</v>
+        <v>94.053487</v>
       </c>
       <c r="O19">
-        <v>0.1192508182702952</v>
+        <v>0.1180378972415954</v>
       </c>
       <c r="P19">
-        <v>0.1192508182702952</v>
+        <v>0.1180378972415954</v>
       </c>
       <c r="Q19">
-        <v>325.6465789369379</v>
+        <v>365.5141620591939</v>
       </c>
       <c r="R19">
-        <v>325.6465789369379</v>
+        <v>3289.627458532745</v>
       </c>
       <c r="S19">
-        <v>0.05095115887167259</v>
+        <v>0.0480555140900828</v>
       </c>
       <c r="T19">
-        <v>0.05095115887167259</v>
+        <v>0.04805551409008279</v>
       </c>
     </row>
   </sheetData>
